--- a/content/codedesign/ResourceFormat.xlsx
+++ b/content/codedesign/ResourceFormat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevVersioned\Tiki3\code\content\codedesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\DevVersioned\Tiki3\code\tiki3\content\codedesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
-  <si>
-    <t>Header</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>Field</t>
   </si>
@@ -116,24 +113,12 @@
     <t>alignment = 1u &lt;&lt; value</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>ReferenceCount</t>
   </si>
   <si>
     <t>ReferenceItem</t>
   </si>
   <si>
-    <t>TargetSectionOffset</t>
-  </si>
-  <si>
-    <t>padding</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
     <t>OffsetInFile</t>
   </si>
   <si>
@@ -161,9 +146,6 @@
     <t>ReferenceType</t>
   </si>
   <si>
-    <t>enum { Pointer, String, ResourceLink }</t>
-  </si>
-  <si>
     <t>TargetId</t>
   </si>
   <si>
@@ -180,6 +162,54 @@
   </si>
   <si>
     <t>Key of target Resource</t>
+  </si>
+  <si>
+    <t>enum { Pointer, String, ResourceLink } needs 2 bits</t>
+  </si>
+  <si>
+    <t>If AllocatorId is 0 this is the initialzation data detion</t>
+  </si>
+  <si>
+    <t>OffsetInSection</t>
+  </si>
+  <si>
+    <t>has only 30 bits</t>
+  </si>
+  <si>
+    <t>OffsetInTargetSection</t>
+  </si>
+  <si>
+    <t>File structure</t>
+  </si>
+  <si>
+    <t>FileHeader</t>
+  </si>
+  <si>
+    <t>Array Size</t>
+  </si>
+  <si>
+    <t>FileHeader-&gt;ResourceCount</t>
+  </si>
+  <si>
+    <t>ResourceHeader-&gt;SectionCount</t>
+  </si>
+  <si>
+    <t>SectionHeader-&gt;Size</t>
+  </si>
+  <si>
+    <t>SectionData(binary)</t>
+  </si>
+  <si>
+    <t>SectionHeader-&gt;ReferenceCount</t>
+  </si>
+  <si>
+    <t>ResourceHeader-&gt;StringCount</t>
+  </si>
+  <si>
+    <t>ResourceHeader-&gt;LinkCount</t>
+  </si>
+  <si>
+    <t>SectionData = OffsetInFile + ( sizeof( ReferenceItem ) * ReferenceCount )</t>
   </si>
 </sst>
 </file>
@@ -203,15 +233,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -337,14 +385,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,10 +486,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -638,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G42"/>
+  <dimension ref="B1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,45 +796,58 @@
     <col min="3" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="100.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="I2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -698,18 +856,24 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -717,17 +881,21 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -735,48 +903,71 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="I8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -785,207 +976,270 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="I18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -996,12 +1250,12 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -1010,142 +1264,146 @@
         <v>8</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="G24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>33</v>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>24</v>
+      <c r="G34" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -1157,11 +1415,11 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>7</v>
+      <c r="B36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1171,64 +1429,64 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>7</v>
+      <c r="B37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>24</v>
+      <c r="G40" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
@@ -1238,15 +1496,15 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -1256,17 +1514,18 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/content/codedesign/ResourceFormat.xlsx
+++ b/content/codedesign/ResourceFormat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\DevVersioned\Tiki3\code\tiki3\content\codedesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevVersioned\Tiki3\code\content\codedesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -477,15 +477,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -503,6 +494,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -786,7 +786,7 @@
   <dimension ref="B1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,18 +803,18 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="I2" s="7" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -835,10 +835,10 @@
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -861,10 +861,10 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -883,10 +883,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -905,35 +905,35 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="I8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J8" s="15" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="I8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -955,10 +955,10 @@
       <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -979,10 +979,10 @@
         <v>21</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1003,10 +1003,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="23" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1025,10 +1025,10 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1047,10 +1047,10 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1069,10 +1069,10 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1091,10 +1091,10 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1113,34 +1113,34 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="I18" s="21" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="I18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1163,10 +1163,10 @@
       <c r="G19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1187,10 +1187,10 @@
       <c r="G20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1211,10 +1211,10 @@
       <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1270,14 +1270,14 @@
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
@@ -1369,14 +1369,14 @@
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
@@ -1452,14 +1452,14 @@
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">

--- a/content/codedesign/ResourceFormat.xlsx
+++ b/content/codedesign/ResourceFormat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevVersioned\Tiki3\code\content\codedesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\tiki3_private\content\codedesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,9 +167,6 @@
     <t>enum { Pointer, String, ResourceLink } needs 2 bits</t>
   </si>
   <si>
-    <t>If AllocatorId is 0 this is the initialzation data detion</t>
-  </si>
-  <si>
     <t>OffsetInSection</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>SectionData = OffsetInFile + ( sizeof( ReferenceItem ) * ReferenceCount )</t>
+  </si>
+  <si>
+    <t>If AllocatorId is 0 this is the initialzation data section</t>
   </si>
 </sst>
 </file>
@@ -786,7 +786,7 @@
   <dimension ref="B1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +804,7 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -812,7 +812,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
       <c r="I2" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="25"/>
     </row>
@@ -839,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="10">
         <v>1</v>
@@ -887,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -917,7 +917,7 @@
         <v>41</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
         <v>32</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -959,7 +959,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -980,10 +980,10 @@
       </c>
       <c r="G10" s="2"/>
       <c r="I10" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1026,10 +1026,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>24</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>32</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>41</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1117,15 +1117,15 @@
         <v>30</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1164,10 +1164,10 @@
         <v>23</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1185,13 +1185,13 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1212,10 +1212,10 @@
         <v>28</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -1332,12 +1332,12 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
